--- a/Data/DATOS.xlsx
+++ b/Data/DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\BI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B8814-573D-4471-82B3-A1AF7B229745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7C8C4-7D8F-47DF-9777-AE45A543CD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuperDatos" sheetId="5" r:id="rId1"/>
@@ -3126,9 +3126,6 @@
     <t>Anio</t>
   </si>
   <si>
-    <t>Mes</t>
-  </si>
-  <si>
     <t>NumMesAnio</t>
   </si>
   <si>
@@ -3151,6 +3148,9 @@
   </si>
   <si>
     <t>Acreditado</t>
+  </si>
+  <si>
+    <t>Pa</t>
   </si>
 </sst>
 </file>
@@ -3409,9 +3409,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3458,6 +3455,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="49" t="s">
         <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3847,7 +3847,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="6" t="s">
         <v>329</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="6" t="s">
         <v>335</v>
       </c>
@@ -4003,7 +4003,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="6" t="s">
         <v>344</v>
       </c>
@@ -4081,7 +4081,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="6" t="s">
         <v>350</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="6" t="s">
         <v>356</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
         <v>362</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="6" t="s">
         <v>368</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="6" t="s">
         <v>374</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="6" t="s">
         <v>380</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="6" t="s">
         <v>386</v>
       </c>
@@ -4625,7 +4625,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="6" t="s">
         <v>393</v>
       </c>
@@ -4703,7 +4703,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="6" t="s">
         <v>399</v>
       </c>
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="6" t="s">
         <v>405</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="6" t="s">
         <v>411</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="6" t="s">
         <v>417</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="6" t="s">
         <v>423</v>
       </c>
@@ -5093,7 +5093,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="6" t="s">
         <v>429</v>
       </c>
@@ -5171,7 +5171,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="6" t="s">
         <v>435</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="6" t="s">
         <v>441</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="49" t="s">
         <v>447</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="6" t="s">
         <v>458</v>
       </c>
@@ -5485,7 +5485,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="6" t="s">
         <v>464</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="6" t="s">
         <v>476</v>
       </c>
@@ -5641,7 +5641,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="6" t="s">
         <v>482</v>
       </c>
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="6" t="s">
         <v>488</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="6" t="s">
         <v>494</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="6" t="s">
         <v>500</v>
       </c>
@@ -5953,7 +5953,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="6" t="s">
         <v>506</v>
       </c>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="6" t="s">
         <v>512</v>
       </c>
@@ -6109,7 +6109,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="6" t="s">
         <v>518</v>
       </c>
@@ -6187,7 +6187,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="6" t="s">
         <v>529</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="6" t="s">
         <v>535</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="6" t="s">
         <v>541</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="6" t="s">
         <v>547</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="6" t="s">
         <v>553</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="6" t="s">
         <v>559</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="6" t="s">
         <v>565</v>
       </c>
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="6" t="s">
         <v>571</v>
       </c>
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="6" t="s">
         <v>577</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="49" t="s">
         <v>583</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6969,7 +6969,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="6" t="s">
         <v>596</v>
       </c>
@@ -7047,7 +7047,7 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="6" t="s">
         <v>604</v>
       </c>
@@ -7125,7 +7125,7 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="6" t="s">
         <v>612</v>
       </c>
@@ -7203,7 +7203,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="6" t="s">
         <v>623</v>
       </c>
@@ -7281,7 +7281,7 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="6" t="s">
         <v>629</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="6" t="s">
         <v>635</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="6" t="s">
         <v>641</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="6" t="s">
         <v>647</v>
       </c>
@@ -7593,7 +7593,7 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="6" t="s">
         <v>653</v>
       </c>
@@ -7671,7 +7671,7 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="6" t="s">
         <v>661</v>
       </c>
@@ -7749,7 +7749,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="6" t="s">
         <v>667</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="6" t="s">
         <v>673</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="6" t="s">
         <v>679</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="6" t="s">
         <v>684</v>
       </c>
@@ -8061,7 +8061,7 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="6" t="s">
         <v>690</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="6" t="s">
         <v>694</v>
       </c>
@@ -8217,7 +8217,7 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="6" t="s">
         <v>705</v>
       </c>
@@ -8295,7 +8295,7 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="6" t="s">
         <v>711</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="6" t="s">
         <v>719</v>
       </c>
@@ -8451,7 +8451,7 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="49" t="s">
         <v>725</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -8531,7 +8531,7 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="6" t="s">
         <v>737</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="6" t="s">
         <v>743</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="6" t="s">
         <v>750</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="6" t="s">
         <v>760</v>
       </c>
@@ -8843,7 +8843,7 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="6" t="s">
         <v>766</v>
       </c>
@@ -8921,7 +8921,7 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="6" t="s">
         <v>773</v>
       </c>
@@ -8999,7 +8999,7 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="6" t="s">
         <v>781</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="6" t="s">
         <v>785</v>
       </c>
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="6" t="s">
         <v>789</v>
       </c>
@@ -9233,7 +9233,7 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="6" t="s">
         <v>798</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="6" t="s">
         <v>802</v>
       </c>
@@ -9389,7 +9389,7 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="6" t="s">
         <v>806</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="6" t="s">
         <v>810</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="6" t="s">
         <v>814</v>
       </c>
@@ -9623,7 +9623,7 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="6" t="s">
         <v>818</v>
       </c>
@@ -9701,7 +9701,7 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="6" t="s">
         <v>826</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="6" t="s">
         <v>830</v>
       </c>
@@ -9857,7 +9857,7 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="6" t="s">
         <v>834</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="6" t="s">
         <v>838</v>
       </c>
@@ -10013,7 +10013,7 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="49" t="s">
         <v>842</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="6" t="s">
         <v>853</v>
       </c>
@@ -10171,7 +10171,7 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="6" t="s">
         <v>861</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="6" t="s">
         <v>867</v>
       </c>
@@ -10327,7 +10327,7 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="6" t="s">
         <v>877</v>
       </c>
@@ -10405,7 +10405,7 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="6" t="s">
         <v>884</v>
       </c>
@@ -10483,7 +10483,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="6" t="s">
         <v>893</v>
       </c>
@@ -10561,7 +10561,7 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="6" t="s">
         <v>902</v>
       </c>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="6" t="s">
         <v>908</v>
       </c>
@@ -10717,7 +10717,7 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="6" t="s">
         <v>918</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="6" t="s">
         <v>926</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="6" t="s">
         <v>932</v>
       </c>
@@ -10951,7 +10951,7 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="6" t="s">
         <v>938</v>
       </c>
@@ -11029,7 +11029,7 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="6" t="s">
         <v>944</v>
       </c>
@@ -11107,7 +11107,7 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="6" t="s">
         <v>950</v>
       </c>
@@ -11185,7 +11185,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="6" t="s">
         <v>958</v>
       </c>
@@ -11263,7 +11263,7 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="6" t="s">
         <v>966</v>
       </c>
@@ -11341,7 +11341,7 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="6" t="s">
         <v>972</v>
       </c>
@@ -11419,7 +11419,7 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="6" t="s">
         <v>980</v>
       </c>
@@ -11497,7 +11497,7 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="6" t="s">
         <v>986</v>
       </c>
@@ -12661,7 +12661,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12714,7 +12714,7 @@
       <c r="N1" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>1019</v>
       </c>
       <c r="P1" s="2"/>
@@ -12770,7 +12770,7 @@
       <c r="M2" s="25">
         <v>1</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="47">
         <v>7</v>
       </c>
       <c r="O2" s="10">
@@ -12819,7 +12819,7 @@
       <c r="M3" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="48">
         <v>6</v>
       </c>
       <c r="O3" s="10">
@@ -12868,7 +12868,7 @@
       <c r="M4" s="10">
         <v>2</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="48">
         <v>6</v>
       </c>
       <c r="O4" s="10">
@@ -12917,7 +12917,7 @@
       <c r="M5" s="10">
         <v>1</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="48">
         <v>7</v>
       </c>
       <c r="O5" s="10">
@@ -12966,7 +12966,7 @@
       <c r="M6" s="10">
         <v>3</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="48">
         <v>5</v>
       </c>
       <c r="O6" s="10">
@@ -13015,7 +13015,7 @@
       <c r="M7" s="10">
         <v>4</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="48">
         <v>7</v>
       </c>
       <c r="O7" s="10">
@@ -13062,7 +13062,7 @@
       <c r="M8" s="10">
         <v>2</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="48">
         <v>7</v>
       </c>
       <c r="O8" s="10">
@@ -13109,7 +13109,7 @@
       <c r="M9" s="10">
         <v>1</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="48">
         <v>6</v>
       </c>
       <c r="O9" s="10">
@@ -13156,7 +13156,7 @@
       <c r="M10" s="10">
         <v>2</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="48">
         <v>6</v>
       </c>
       <c r="O10" s="10">
@@ -13203,7 +13203,7 @@
       <c r="M11" s="10">
         <v>3</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="48">
         <v>7</v>
       </c>
       <c r="O11" s="10">
@@ -13250,7 +13250,7 @@
       <c r="M12" s="10">
         <v>3</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="48">
         <v>5</v>
       </c>
       <c r="O12" s="10">
@@ -13297,7 +13297,7 @@
       <c r="M13" s="10">
         <v>2</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="48">
         <v>6</v>
       </c>
       <c r="O13" s="10">
@@ -13344,7 +13344,7 @@
       <c r="M14" s="10">
         <v>1</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="48">
         <v>6</v>
       </c>
       <c r="O14" s="10">
@@ -13391,7 +13391,7 @@
       <c r="M15" s="10">
         <v>4</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="48">
         <v>6</v>
       </c>
       <c r="O15" s="10">
@@ -13438,7 +13438,7 @@
       <c r="M16" s="10">
         <v>4</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="48">
         <v>6</v>
       </c>
       <c r="O16" s="10">
@@ -13485,7 +13485,7 @@
       <c r="M17" s="10">
         <v>3</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="48">
         <v>7</v>
       </c>
       <c r="O17" s="10">
@@ -13532,7 +13532,7 @@
       <c r="M18" s="10">
         <v>4</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="48">
         <v>5</v>
       </c>
       <c r="O18" s="10">
@@ -13579,7 +13579,7 @@
       <c r="M19" s="10">
         <v>3</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="48">
         <v>5</v>
       </c>
       <c r="O19" s="10">
@@ -14594,44 +14594,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>997</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="38" t="s">
         <v>1032</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="38" t="s">
         <v>1033</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>1034</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="4"/>
@@ -14652,22 +14652,22 @@
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="40">
         <v>43384</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="41">
         <v>100</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="42">
         <v>95.14</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="10">
@@ -14685,35 +14685,35 @@
       <c r="L2" s="10">
         <v>6</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="44">
         <v>49.420810751324211</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="40">
         <v>43377</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <v>200</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>138.72999999999999</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="10">
@@ -14731,35 +14731,35 @@
       <c r="L3" s="10">
         <v>17</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="44">
         <v>47.7842660399333</v>
       </c>
       <c r="N3" s="8"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="40">
         <v>43344</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <v>140</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>124.31</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="10">
@@ -14777,35 +14777,35 @@
       <c r="L4" s="10">
         <v>7</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="44">
         <v>36.40695930655496</v>
       </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>43337</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <v>120</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>165.48</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="10">
@@ -14823,35 +14823,35 @@
       <c r="L5" s="10">
         <v>5</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="44">
         <v>26.147367595533566</v>
       </c>
       <c r="N5" s="8"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="40">
         <v>43327</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <v>200</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="42">
         <v>73.739999999999995</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="10">
@@ -14869,35 +14869,35 @@
       <c r="L6" s="10">
         <v>41</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="44">
         <v>50.961216824782248</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="40">
         <v>43335</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="45">
         <v>400</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <v>189.44</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="10">
@@ -14915,35 +14915,35 @@
       <c r="L7" s="10">
         <v>36</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="44">
         <v>58.160604209943791</v>
       </c>
       <c r="N7" s="8"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="40">
         <v>43346</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <v>20</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="42">
         <v>115.65</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="10">
@@ -14961,35 +14961,35 @@
       <c r="L8" s="10">
         <v>16</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="44">
         <v>91.489007843193406</v>
       </c>
       <c r="N8" s="8"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="40">
         <v>43333</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="45">
         <v>200</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <v>79.239999999999995</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="10">
@@ -15007,35 +15007,35 @@
       <c r="L9" s="10">
         <v>8</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="44">
         <v>53.617490009606875</v>
       </c>
       <c r="N9" s="8"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="40">
         <v>43333</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <v>100</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <v>97.6</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="10">
@@ -15053,35 +15053,35 @@
       <c r="L10" s="10">
         <v>18</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="44">
         <v>46.852940222222713</v>
       </c>
       <c r="N10" s="8"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="40">
         <v>43327</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="45">
         <v>150</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>86.31</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="10">
@@ -15099,35 +15099,35 @@
       <c r="L11" s="10">
         <v>39</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="44">
         <v>56.415017070201792</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="40">
         <v>43574</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="45">
         <v>89</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <v>62.87</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="10">
@@ -15145,35 +15145,35 @@
       <c r="L12" s="10">
         <v>15</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="44">
         <v>84.691388843190836</v>
       </c>
       <c r="N12" s="8"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="40">
         <v>43578</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="45">
         <v>33</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <v>189.11</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="10">
@@ -15191,35 +15191,35 @@
       <c r="L13" s="10">
         <v>28</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="44">
         <v>65.713975323905018</v>
       </c>
       <c r="N13" s="8"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="40">
         <v>43576</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="45">
         <v>60</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="42">
         <v>133.36000000000001</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="10">
@@ -15237,35 +15237,35 @@
       <c r="L14" s="10">
         <v>26</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="44">
         <v>25.102258528578339</v>
       </c>
       <c r="N14" s="8"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="40">
         <v>43546</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <v>59</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>180.99</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="10">
@@ -15283,35 +15283,35 @@
       <c r="L15" s="10">
         <v>14</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="44">
         <v>55.580604258066451</v>
       </c>
       <c r="N15" s="8"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="40">
         <v>43558</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="45">
         <v>138</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <v>112.89</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="10">
@@ -15329,35 +15329,35 @@
       <c r="L16" s="10">
         <v>27</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="44">
         <v>72.93979954129837</v>
       </c>
       <c r="N16" s="8"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="40">
         <v>43560</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="45">
         <v>96</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>150.55000000000001</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="10">
@@ -15375,35 +15375,35 @@
       <c r="L17" s="10">
         <v>34</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="44">
         <v>21.844767533824019</v>
       </c>
       <c r="N17" s="8"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="40">
         <v>43547</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="45">
         <v>102</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <v>192.68</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="10">
@@ -15421,35 +15421,35 @@
       <c r="L18" s="10">
         <v>5</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="44">
         <v>60.29995579674236</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="40">
         <v>43580</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="45">
         <v>192</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <v>124.54</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="10">
@@ -15467,35 +15467,35 @@
       <c r="L19" s="10">
         <v>5</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="44">
         <v>93.322247177995393</v>
       </c>
       <c r="N19" s="8"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="40">
         <v>43578</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="45">
         <v>65</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="42">
         <v>109.22</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="10">
@@ -15513,35 +15513,35 @@
       <c r="L20" s="10">
         <v>36</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="44">
         <v>66.414364532290747</v>
       </c>
       <c r="N20" s="8"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="40">
         <v>43564</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="45">
         <v>98</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <v>122.65</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="10">
@@ -15559,35 +15559,35 @@
       <c r="L21" s="10">
         <v>29</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="44">
         <v>41.394204298575076</v>
       </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="40">
         <v>44009</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="45">
         <v>188</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <v>179.1</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="10">
@@ -15605,35 +15605,35 @@
       <c r="L22" s="10">
         <v>13</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="44">
         <v>84.283924964955801</v>
       </c>
       <c r="N22" s="8"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="40">
         <v>43996</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="45">
         <v>186</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <v>172.68</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="10">
@@ -15651,35 +15651,35 @@
       <c r="L23" s="10">
         <v>5</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="44">
         <v>17.896759990980641</v>
       </c>
       <c r="N23" s="8"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="40">
         <v>43468</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="45">
         <v>146</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="42">
         <v>197.27</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="10">
@@ -15697,35 +15697,35 @@
       <c r="L24" s="10">
         <v>33</v>
       </c>
-      <c r="M24" s="47">
+      <c r="M24" s="44">
         <v>80.083803714217751</v>
       </c>
       <c r="N24" s="8"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="40">
         <v>43456</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="45">
         <v>160</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="42">
         <v>78.03</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="10">
@@ -15743,35 +15743,35 @@
       <c r="L25" s="10">
         <v>22</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="44">
         <v>86.94925170787765</v>
       </c>
       <c r="N25" s="8"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="40">
         <v>43450</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="45">
         <v>97</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="42">
         <v>143.94999999999999</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="10">
@@ -15789,35 +15789,35 @@
       <c r="L26" s="10">
         <v>28</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="44">
         <v>81.467978636476715</v>
       </c>
       <c r="N26" s="8"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="40">
         <v>43465</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="45">
         <v>30</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="42">
         <v>72.400000000000006</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="10">
@@ -15835,35 +15835,35 @@
       <c r="L27" s="10">
         <v>31</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="44">
         <v>35.000061775153164</v>
       </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="40">
         <v>43442</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="45">
         <v>49</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <v>161.07</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="10">
@@ -15881,35 +15881,35 @@
       <c r="L28" s="10">
         <v>3</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="44">
         <v>24.838495361473679</v>
       </c>
       <c r="N28" s="8"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="40">
         <v>43457</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="45">
         <v>184</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="42">
         <v>132.24</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="10">
@@ -15927,35 +15927,35 @@
       <c r="L29" s="10">
         <v>7</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="44">
         <v>34.121375466975579</v>
       </c>
       <c r="N29" s="8"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="40">
         <v>43475</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="45">
         <v>189</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="42">
         <v>143.99</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="10">
@@ -15973,35 +15973,35 @@
       <c r="L30" s="10">
         <v>5</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="44">
         <v>74.541785789098967</v>
       </c>
       <c r="N30" s="8"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="40">
         <v>43466</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="45">
         <v>168</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="42">
         <v>136.29</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="10">
@@ -16019,35 +16019,35 @@
       <c r="L31" s="10">
         <v>11</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="44">
         <v>100.12738665491366</v>
       </c>
       <c r="N31" s="8"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="40">
         <v>44055</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="45">
         <v>99</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="42">
         <v>126.9</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="10">
@@ -16065,35 +16065,35 @@
       <c r="L32" s="10">
         <v>40</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="44">
         <v>73.522924671738664</v>
       </c>
       <c r="N32" s="8"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="40">
         <v>44073</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="45">
         <v>175</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="42">
         <v>117.19</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="10">
@@ -16111,35 +16111,35 @@
       <c r="L33" s="10">
         <v>20</v>
       </c>
-      <c r="M33" s="47">
+      <c r="M33" s="44">
         <v>20.169551526554905</v>
       </c>
       <c r="N33" s="8"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="40">
         <v>44048</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="45">
         <v>149</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="42">
         <v>90.14</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="10">
@@ -16157,35 +16157,35 @@
       <c r="L34" s="10">
         <v>17</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="44">
         <v>24.934857223340611</v>
       </c>
       <c r="N34" s="8"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="40">
         <v>44048</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="45">
         <v>139</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="42">
         <v>190.17</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="10">
@@ -16203,35 +16203,35 @@
       <c r="L35" s="10">
         <v>13</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="44">
         <v>17.552743121996411</v>
       </c>
       <c r="N35" s="8"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="40">
         <v>44072</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="45">
         <v>154</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="42">
         <v>123.33</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="10">
@@ -16249,35 +16249,35 @@
       <c r="L36" s="10">
         <v>1</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="44">
         <v>64.317609936340375</v>
       </c>
       <c r="N36" s="8"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="40">
         <v>44054</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="45">
         <v>63</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="42">
         <v>178.1</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="10">
@@ -16295,35 +16295,35 @@
       <c r="L37" s="10">
         <v>31</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="44">
         <v>92.408790121055475</v>
       </c>
       <c r="N37" s="8"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="40">
         <v>44043</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="45">
         <v>94</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="42">
         <v>199.97</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="10">
@@ -16341,35 +16341,35 @@
       <c r="L38" s="10">
         <v>37</v>
       </c>
-      <c r="M38" s="47">
+      <c r="M38" s="44">
         <v>96.634138776103654</v>
       </c>
       <c r="N38" s="8"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="40">
         <v>44076</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="45">
         <v>196</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="42">
         <v>136.54</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="10">
@@ -16387,35 +16387,35 @@
       <c r="L39" s="10">
         <v>21</v>
       </c>
-      <c r="M39" s="47">
+      <c r="M39" s="44">
         <v>24.12161739896818</v>
       </c>
       <c r="N39" s="8"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="40">
         <v>44061</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="45">
         <v>64</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="42">
         <v>172.15</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="10">
@@ -16433,35 +16433,35 @@
       <c r="L40" s="10">
         <v>14</v>
       </c>
-      <c r="M40" s="47">
+      <c r="M40" s="44">
         <v>59.0428576080052</v>
       </c>
       <c r="N40" s="8"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="40">
         <v>44056</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="45">
         <v>106</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="42">
         <v>189.53</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="10">
@@ -16479,35 +16479,35 @@
       <c r="L41" s="10">
         <v>13</v>
       </c>
-      <c r="M41" s="47">
+      <c r="M41" s="44">
         <v>72.473622296967903</v>
       </c>
       <c r="N41" s="8"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="40">
         <v>43986</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="45">
         <v>137</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="42">
         <v>102.28</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="10">
@@ -16525,35 +16525,35 @@
       <c r="L42" s="10">
         <v>33</v>
       </c>
-      <c r="M42" s="47">
+      <c r="M42" s="44">
         <v>46.326820144426868</v>
       </c>
       <c r="N42" s="8"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="40">
         <v>43987</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="45">
         <v>116</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="42">
         <v>174.91</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="10">
@@ -16571,35 +16571,35 @@
       <c r="L43" s="10">
         <v>41</v>
       </c>
-      <c r="M43" s="47">
+      <c r="M43" s="44">
         <v>81.032650805162945</v>
       </c>
       <c r="N43" s="8"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="40">
         <v>43988</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="45">
         <v>25</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="42">
         <v>95.08</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="10">
@@ -16617,35 +16617,35 @@
       <c r="L44" s="10">
         <v>14</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M44" s="44">
         <v>73.591468280668948</v>
       </c>
       <c r="N44" s="8"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="40">
         <v>44072</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="45">
         <v>71</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="42">
         <v>155.1</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="10">
@@ -16663,35 +16663,35 @@
       <c r="L45" s="10">
         <v>39</v>
       </c>
-      <c r="M45" s="47">
+      <c r="M45" s="44">
         <v>87.698437961769301</v>
       </c>
       <c r="N45" s="8"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="40">
         <v>44073</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="45">
         <v>83</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="42">
         <v>85.16</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="10">
@@ -16709,35 +16709,35 @@
       <c r="L46" s="10">
         <v>36</v>
       </c>
-      <c r="M46" s="47">
+      <c r="M46" s="44">
         <v>98.423508995999072</v>
       </c>
       <c r="N46" s="8"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="40">
         <v>44074</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="45">
         <v>163</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="42">
         <v>180.28</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="10">
@@ -16755,35 +16755,35 @@
       <c r="L47" s="10">
         <v>25</v>
       </c>
-      <c r="M47" s="47">
+      <c r="M47" s="44">
         <v>13.024873958946412</v>
       </c>
       <c r="N47" s="8"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="40">
         <v>44075</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="45">
         <v>159</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="42">
         <v>108.98</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="10">
@@ -16801,35 +16801,35 @@
       <c r="L48" s="10">
         <v>23</v>
       </c>
-      <c r="M48" s="47">
+      <c r="M48" s="44">
         <v>78.114895661465852</v>
       </c>
       <c r="N48" s="8"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="40">
         <v>44076</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="45">
         <v>111</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="42">
         <v>84.73</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H49" s="10">
@@ -16847,35 +16847,35 @@
       <c r="L49" s="10">
         <v>2</v>
       </c>
-      <c r="M49" s="47">
+      <c r="M49" s="44">
         <v>77.861284768756661</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="40">
         <v>44077</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="45">
         <v>42</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="42">
         <v>168.94</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="10">
@@ -16893,35 +16893,35 @@
       <c r="L50" s="10">
         <v>2</v>
       </c>
-      <c r="M50" s="47">
+      <c r="M50" s="44">
         <v>71.160009068366563</v>
       </c>
       <c r="N50" s="8"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="40">
         <v>44078</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="45">
         <v>100</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="42">
         <v>159.59</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H51" s="10">
@@ -16939,35 +16939,35 @@
       <c r="L51" s="10">
         <v>22</v>
       </c>
-      <c r="M51" s="47">
+      <c r="M51" s="44">
         <v>78.330665088812637</v>
       </c>
       <c r="N51" s="8"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="40">
         <v>44079</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="45">
         <v>52</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="42">
         <v>91.75</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="10">
@@ -16985,35 +16985,35 @@
       <c r="L52" s="10">
         <v>38</v>
       </c>
-      <c r="M52" s="47">
+      <c r="M52" s="44">
         <v>50.248812052687683</v>
       </c>
       <c r="N52" s="8"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="40">
         <v>44080</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="45">
         <v>133</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="42">
         <v>145.18</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="10">
@@ -17031,35 +17031,35 @@
       <c r="L53" s="10">
         <v>9</v>
       </c>
-      <c r="M53" s="47">
+      <c r="M53" s="44">
         <v>42.075806763375056</v>
       </c>
       <c r="N53" s="8"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="40">
         <v>44081</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="45">
         <v>137</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="42">
         <v>89.45</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="10">
@@ -17077,35 +17077,35 @@
       <c r="L54" s="10">
         <v>24</v>
       </c>
-      <c r="M54" s="47">
+      <c r="M54" s="44">
         <v>70.65169694942665</v>
       </c>
       <c r="N54" s="8"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="40">
         <v>44082</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="45">
         <v>130</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="42">
         <v>166.04</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H55" s="10">
@@ -17123,35 +17123,35 @@
       <c r="L55" s="10">
         <v>32</v>
       </c>
-      <c r="M55" s="47">
+      <c r="M55" s="44">
         <v>93.194024695422499</v>
       </c>
       <c r="N55" s="8"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="40">
         <v>44083</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="45">
         <v>34</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="42">
         <v>98.16</v>
       </c>
-      <c r="G56" s="46" t="s">
+      <c r="G56" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="10">
@@ -17169,35 +17169,35 @@
       <c r="L56" s="10">
         <v>29</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="44">
         <v>97.721523778055285</v>
       </c>
       <c r="N56" s="8"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="40">
         <v>44084</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="45">
         <v>118</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="42">
         <v>111.5</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H57" s="10">
@@ -17215,35 +17215,35 @@
       <c r="L57" s="10">
         <v>6</v>
       </c>
-      <c r="M57" s="47">
+      <c r="M57" s="44">
         <v>32.432353532133838</v>
       </c>
       <c r="N57" s="8"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="40">
         <v>44169</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="45">
         <v>97</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="42">
         <v>79.099999999999994</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="10">
@@ -17261,35 +17261,35 @@
       <c r="L58" s="10">
         <v>3</v>
       </c>
-      <c r="M58" s="47">
+      <c r="M58" s="44">
         <v>13.071814894360593</v>
       </c>
       <c r="N58" s="8"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="40">
         <v>44170</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="45">
         <v>85</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="42">
         <v>133.51</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H59" s="10">
@@ -17307,35 +17307,35 @@
       <c r="L59" s="10">
         <v>16</v>
       </c>
-      <c r="M59" s="47">
+      <c r="M59" s="44">
         <v>30.947381855692598</v>
       </c>
       <c r="N59" s="8"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="40">
         <v>44171</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="45">
         <v>79</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="42">
         <v>177.05</v>
       </c>
-      <c r="G60" s="46" t="s">
+      <c r="G60" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="10">
@@ -17353,35 +17353,35 @@
       <c r="L60" s="10">
         <v>30</v>
       </c>
-      <c r="M60" s="47">
+      <c r="M60" s="44">
         <v>22.71521741873795</v>
       </c>
       <c r="N60" s="8"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="40">
         <v>44172</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E61" s="45">
         <v>53</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="42">
         <v>171.63</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H61" s="10">
@@ -17399,35 +17399,35 @@
       <c r="L61" s="10">
         <v>22</v>
       </c>
-      <c r="M61" s="47">
+      <c r="M61" s="44">
         <v>31.109478624025385</v>
       </c>
       <c r="N61" s="8"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="40">
         <v>43743</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="45">
         <v>150</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="42">
         <v>72.459999999999994</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="10">
@@ -17445,35 +17445,35 @@
       <c r="L62" s="10">
         <v>36</v>
       </c>
-      <c r="M62" s="47">
+      <c r="M62" s="44">
         <v>23.547470687652599</v>
       </c>
       <c r="N62" s="8"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="40">
         <v>43743</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="45">
         <v>120</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="42">
         <v>87.54</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="10">
@@ -17491,35 +17491,35 @@
       <c r="L63" s="10">
         <v>27</v>
       </c>
-      <c r="M63" s="47">
+      <c r="M63" s="44">
         <v>38.288366878333463</v>
       </c>
       <c r="N63" s="8"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="40">
         <v>43743</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="45">
         <v>220</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="42">
         <v>94.03</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="10">
@@ -17537,35 +17537,35 @@
       <c r="L64" s="10">
         <v>22</v>
       </c>
-      <c r="M64" s="47">
+      <c r="M64" s="44">
         <v>42.668264898596433</v>
       </c>
       <c r="N64" s="8"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
     </row>
     <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="43">
+      <c r="D65" s="40">
         <v>43666</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="45">
         <v>75</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="42">
         <v>79.06</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="G65" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="10">
@@ -17583,35 +17583,35 @@
       <c r="L65" s="10">
         <v>20</v>
       </c>
-      <c r="M65" s="47">
+      <c r="M65" s="44">
         <v>40.19982614778904</v>
       </c>
       <c r="N65" s="8"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
     </row>
     <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="40">
         <v>43666</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="45">
         <v>58</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="42">
         <v>92.62</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="10">
@@ -17629,35 +17629,35 @@
       <c r="L66" s="10">
         <v>10</v>
       </c>
-      <c r="M66" s="47">
+      <c r="M66" s="44">
         <v>25.046329082296698</v>
       </c>
       <c r="N66" s="8"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
     </row>
     <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="40">
         <v>43666</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="45">
         <v>110</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="42">
         <v>90.88</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="10">
@@ -17675,35 +17675,35 @@
       <c r="L67" s="10">
         <v>41</v>
       </c>
-      <c r="M67" s="47">
+      <c r="M67" s="44">
         <v>48.138226734986098</v>
       </c>
       <c r="N67" s="8"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="40">
         <v>43646</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="45">
         <v>143</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="42">
         <v>159.38999999999999</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="10">
@@ -17721,35 +17721,35 @@
       <c r="L68" s="10">
         <v>16</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="44">
         <v>79.031917374424992</v>
       </c>
       <c r="N68" s="8"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="40">
         <v>43646</v>
       </c>
-      <c r="E69" s="48">
+      <c r="E69" s="45">
         <v>193</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="42">
         <v>87.89</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="10">
@@ -17767,35 +17767,35 @@
       <c r="L69" s="10">
         <v>39</v>
       </c>
-      <c r="M69" s="47">
+      <c r="M69" s="44">
         <v>64.657199442138349</v>
       </c>
       <c r="N69" s="8"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="40">
         <v>43646</v>
       </c>
-      <c r="E70" s="48">
+      <c r="E70" s="45">
         <v>174</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="42">
         <v>90.21</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="10">
@@ -17813,35 +17813,35 @@
       <c r="L70" s="10">
         <v>24</v>
       </c>
-      <c r="M70" s="47">
+      <c r="M70" s="44">
         <v>88.685969013199767</v>
       </c>
       <c r="N70" s="8"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D71" s="40">
         <v>43593</v>
       </c>
-      <c r="E71" s="48">
+      <c r="E71" s="45">
         <v>195</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="42">
         <v>94.19</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="G71" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="10">
@@ -17859,35 +17859,35 @@
       <c r="L71" s="10">
         <v>11</v>
       </c>
-      <c r="M71" s="47">
+      <c r="M71" s="44">
         <v>59.870759912709417</v>
       </c>
       <c r="N71" s="8"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="43">
+      <c r="D72" s="40">
         <v>43593</v>
       </c>
-      <c r="E72" s="48">
+      <c r="E72" s="45">
         <v>157</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="42">
         <v>115.62</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="G72" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H72" s="10">
@@ -17905,35 +17905,35 @@
       <c r="L72" s="10">
         <v>36</v>
       </c>
-      <c r="M72" s="47">
+      <c r="M72" s="44">
         <v>71.108040419197152</v>
       </c>
       <c r="N72" s="8"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="43">
+      <c r="D73" s="40">
         <v>43593</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="45">
         <v>193</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="42">
         <v>110.59</v>
       </c>
-      <c r="G73" s="46" t="s">
+      <c r="G73" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H73" s="10">
@@ -17951,35 +17951,35 @@
       <c r="L73" s="10">
         <v>30</v>
       </c>
-      <c r="M73" s="47">
+      <c r="M73" s="44">
         <v>58.948139410442998</v>
       </c>
       <c r="N73" s="8"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="43">
+      <c r="D74" s="40">
         <v>43593</v>
       </c>
-      <c r="E74" s="48">
+      <c r="E74" s="45">
         <v>115</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="42">
         <v>150.53</v>
       </c>
-      <c r="G74" s="46" t="s">
+      <c r="G74" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="10">
@@ -17997,35 +17997,35 @@
       <c r="L74" s="10">
         <v>29</v>
       </c>
-      <c r="M74" s="47">
+      <c r="M74" s="44">
         <v>12.553935837123168</v>
       </c>
       <c r="N74" s="8"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="40">
         <v>43593</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="45">
         <v>148</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="42">
         <v>110.6</v>
       </c>
-      <c r="G75" s="46" t="s">
+      <c r="G75" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="10">
@@ -18043,35 +18043,35 @@
       <c r="L75" s="10">
         <v>2</v>
       </c>
-      <c r="M75" s="47">
+      <c r="M75" s="44">
         <v>87.845683593724104</v>
       </c>
       <c r="N75" s="8"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="40">
         <v>43593</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="45">
         <v>179</v>
       </c>
-      <c r="F76" s="45">
+      <c r="F76" s="42">
         <v>82.88</v>
       </c>
-      <c r="G76" s="46" t="s">
+      <c r="G76" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="10">
@@ -18089,35 +18089,35 @@
       <c r="L76" s="10">
         <v>19</v>
       </c>
-      <c r="M76" s="47">
+      <c r="M76" s="44">
         <v>57.23794627343888</v>
       </c>
       <c r="N76" s="8"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="43">
+      <c r="D77" s="40">
         <v>43689</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="45">
         <v>192</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="42">
         <v>111.98</v>
       </c>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="10">
@@ -18135,35 +18135,35 @@
       <c r="L77" s="10">
         <v>3</v>
       </c>
-      <c r="M77" s="47">
+      <c r="M77" s="44">
         <v>40.390604940772555</v>
       </c>
       <c r="N77" s="8"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="40">
         <v>43689</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="45">
         <v>146</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="42">
         <v>168.85</v>
       </c>
-      <c r="G78" s="46" t="s">
+      <c r="G78" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="10">
@@ -18181,35 +18181,35 @@
       <c r="L78" s="10">
         <v>1</v>
       </c>
-      <c r="M78" s="47">
+      <c r="M78" s="44">
         <v>37.137291170638115</v>
       </c>
       <c r="N78" s="8"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
     </row>
     <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="40">
         <v>43689</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="45">
         <v>190</v>
       </c>
-      <c r="F79" s="45">
+      <c r="F79" s="42">
         <v>147.63</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="10">
@@ -18227,35 +18227,35 @@
       <c r="L79" s="10">
         <v>1</v>
       </c>
-      <c r="M79" s="47">
+      <c r="M79" s="44">
         <v>65.821288143425804</v>
       </c>
       <c r="N79" s="8"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
     </row>
     <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="43">
+      <c r="D80" s="40">
         <v>43689</v>
       </c>
-      <c r="E80" s="48">
+      <c r="E80" s="45">
         <v>110</v>
       </c>
-      <c r="F80" s="45">
+      <c r="F80" s="42">
         <v>134.47</v>
       </c>
-      <c r="G80" s="46" t="s">
+      <c r="G80" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H80" s="10">
@@ -18273,35 +18273,35 @@
       <c r="L80" s="10">
         <v>25</v>
       </c>
-      <c r="M80" s="47">
+      <c r="M80" s="44">
         <v>91.755314331096358</v>
       </c>
       <c r="N80" s="8"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
     </row>
     <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="43">
+      <c r="D81" s="40">
         <v>43689</v>
       </c>
-      <c r="E81" s="48">
+      <c r="E81" s="45">
         <v>121</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="42">
         <v>136.05000000000001</v>
       </c>
-      <c r="G81" s="46" t="s">
+      <c r="G81" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H81" s="10">
@@ -18319,35 +18319,35 @@
       <c r="L81" s="10">
         <v>14</v>
       </c>
-      <c r="M81" s="47">
+      <c r="M81" s="44">
         <v>73.138443411347055</v>
       </c>
       <c r="N81" s="8"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="43">
+      <c r="D82" s="40">
         <v>43890</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="45">
         <v>200</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="42">
         <v>190.94</v>
       </c>
-      <c r="G82" s="46" t="s">
+      <c r="G82" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H82" s="10">
@@ -18365,35 +18365,35 @@
       <c r="L82" s="10">
         <v>13</v>
       </c>
-      <c r="M82" s="47">
+      <c r="M82" s="44">
         <v>92.107927007349133</v>
       </c>
       <c r="N82" s="8"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="40">
         <v>44099</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="45">
         <v>100</v>
       </c>
-      <c r="F83" s="45">
+      <c r="F83" s="42">
         <v>107.5</v>
       </c>
-      <c r="G83" s="46" t="s">
+      <c r="G83" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="10">
@@ -18411,35 +18411,35 @@
       <c r="L83" s="10">
         <v>12</v>
       </c>
-      <c r="M83" s="47">
+      <c r="M83" s="44">
         <v>77.309137568016865</v>
       </c>
       <c r="N83" s="8"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="43">
+      <c r="D84" s="40">
         <v>44052</v>
       </c>
-      <c r="E84" s="48">
+      <c r="E84" s="45">
         <v>250</v>
       </c>
-      <c r="F84" s="45">
+      <c r="F84" s="42">
         <v>102.22</v>
       </c>
-      <c r="G84" s="46" t="s">
+      <c r="G84" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="10">
@@ -18457,35 +18457,35 @@
       <c r="L84" s="10">
         <v>41</v>
       </c>
-      <c r="M84" s="47">
+      <c r="M84" s="44">
         <v>53.208193728222128</v>
       </c>
       <c r="N84" s="8"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="40">
         <v>43956</v>
       </c>
-      <c r="E85" s="48">
+      <c r="E85" s="45">
         <v>300</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="42">
         <v>190.99</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G85" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="10">
@@ -18503,35 +18503,35 @@
       <c r="L85" s="10">
         <v>3</v>
       </c>
-      <c r="M85" s="47">
+      <c r="M85" s="44">
         <v>97.466893017711158</v>
       </c>
       <c r="N85" s="8"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="43">
+      <c r="D86" s="40">
         <v>43754</v>
       </c>
-      <c r="E86" s="48">
+      <c r="E86" s="45">
         <v>120</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="42">
         <v>180.04</v>
       </c>
-      <c r="G86" s="46" t="s">
+      <c r="G86" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="10">
@@ -18549,35 +18549,35 @@
       <c r="L86" s="10">
         <v>4</v>
       </c>
-      <c r="M86" s="47">
+      <c r="M86" s="44">
         <v>22.128394200097933</v>
       </c>
       <c r="N86" s="8"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="43">
+      <c r="D87" s="40">
         <v>43938</v>
       </c>
-      <c r="E87" s="48">
+      <c r="E87" s="45">
         <v>140</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="42">
         <v>165.97</v>
       </c>
-      <c r="G87" s="46" t="s">
+      <c r="G87" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H87" s="10">
@@ -18595,35 +18595,35 @@
       <c r="L87" s="10">
         <v>2</v>
       </c>
-      <c r="M87" s="47">
+      <c r="M87" s="44">
         <v>24.300452905437957</v>
       </c>
       <c r="N87" s="8"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D88" s="43">
+      <c r="D88" s="40">
         <v>43833</v>
       </c>
-      <c r="E88" s="48">
+      <c r="E88" s="45">
         <v>220</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="42">
         <v>75.11</v>
       </c>
-      <c r="G88" s="46" t="s">
+      <c r="G88" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="10">
@@ -18641,35 +18641,35 @@
       <c r="L88" s="10">
         <v>13</v>
       </c>
-      <c r="M88" s="47">
+      <c r="M88" s="44">
         <v>22.508951165372636</v>
       </c>
       <c r="N88" s="8"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="43">
+      <c r="D89" s="40">
         <v>43807</v>
       </c>
-      <c r="E89" s="48">
+      <c r="E89" s="45">
         <v>110</v>
       </c>
-      <c r="F89" s="45">
+      <c r="F89" s="42">
         <v>138.97</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G89" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H89" s="10">
@@ -18687,35 +18687,35 @@
       <c r="L89" s="10">
         <v>19</v>
       </c>
-      <c r="M89" s="47">
+      <c r="M89" s="44">
         <v>40.424205499113945</v>
       </c>
       <c r="N89" s="8"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="40">
         <v>44074</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="45">
         <v>250</v>
       </c>
-      <c r="F90" s="45">
+      <c r="F90" s="42">
         <v>80.47</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H90" s="10">
@@ -18733,35 +18733,35 @@
       <c r="L90" s="10">
         <v>4</v>
       </c>
-      <c r="M90" s="47">
+      <c r="M90" s="44">
         <v>24.470725382556278</v>
       </c>
       <c r="N90" s="8"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="43">
+      <c r="D91" s="40">
         <v>43635</v>
       </c>
-      <c r="E91" s="48">
+      <c r="E91" s="45">
         <v>300</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F91" s="42">
         <v>185.98</v>
       </c>
-      <c r="G91" s="46" t="s">
+      <c r="G91" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="10">
@@ -18779,35 +18779,35 @@
       <c r="L91" s="10">
         <v>22</v>
       </c>
-      <c r="M91" s="47">
+      <c r="M91" s="44">
         <v>56.987119262868703</v>
       </c>
       <c r="N91" s="8"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="43">
+      <c r="D92" s="40">
         <v>43586</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="45">
         <v>230</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="42">
         <v>174.44</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H92" s="10">
@@ -18825,35 +18825,35 @@
       <c r="L92" s="10">
         <v>40</v>
       </c>
-      <c r="M92" s="47">
+      <c r="M92" s="44">
         <v>49.889686200741878</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D93" s="43">
+      <c r="D93" s="40">
         <v>43582</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="45">
         <v>120</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="42">
         <v>175.63</v>
       </c>
-      <c r="G93" s="46" t="s">
+      <c r="G93" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H93" s="10">
@@ -18871,35 +18871,35 @@
       <c r="L93" s="10">
         <v>30</v>
       </c>
-      <c r="M93" s="47">
+      <c r="M93" s="44">
         <v>19.574796797988444</v>
       </c>
       <c r="N93" s="8"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
     </row>
     <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="40">
         <v>43982</v>
       </c>
-      <c r="E94" s="48">
+      <c r="E94" s="45">
         <v>540</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="42">
         <v>175.07</v>
       </c>
-      <c r="G94" s="46" t="s">
+      <c r="G94" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H94" s="10">
@@ -18917,35 +18917,35 @@
       <c r="L94" s="10">
         <v>33</v>
       </c>
-      <c r="M94" s="47">
+      <c r="M94" s="44">
         <v>64.528373145514294</v>
       </c>
       <c r="N94" s="8"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
     </row>
     <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D95" s="43">
+      <c r="D95" s="40">
         <v>43932</v>
       </c>
-      <c r="E95" s="48">
+      <c r="E95" s="45">
         <v>200</v>
       </c>
-      <c r="F95" s="45">
+      <c r="F95" s="42">
         <v>107.41</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="10">
@@ -18963,35 +18963,35 @@
       <c r="L95" s="10">
         <v>18</v>
       </c>
-      <c r="M95" s="47">
+      <c r="M95" s="44">
         <v>74.390355353344319</v>
       </c>
       <c r="N95" s="8"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="40">
         <v>43841</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="45">
         <v>150</v>
       </c>
-      <c r="F96" s="45">
+      <c r="F96" s="42">
         <v>198.07</v>
       </c>
-      <c r="G96" s="46" t="s">
+      <c r="G96" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="10">
@@ -19009,35 +19009,35 @@
       <c r="L96" s="10">
         <v>10</v>
       </c>
-      <c r="M96" s="47">
+      <c r="M96" s="44">
         <v>67.837478211299754</v>
       </c>
       <c r="N96" s="8"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
     </row>
     <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D97" s="43">
+      <c r="D97" s="40">
         <v>43989</v>
       </c>
-      <c r="E97" s="48">
+      <c r="E97" s="45">
         <v>420</v>
       </c>
-      <c r="F97" s="45">
+      <c r="F97" s="42">
         <v>88.38</v>
       </c>
-      <c r="G97" s="46" t="s">
+      <c r="G97" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H97" s="10">
@@ -19055,35 +19055,35 @@
       <c r="L97" s="10">
         <v>39</v>
       </c>
-      <c r="M97" s="47">
+      <c r="M97" s="44">
         <v>10.724644078961179</v>
       </c>
       <c r="N97" s="8"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34"/>
     </row>
     <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D98" s="43">
+      <c r="D98" s="40">
         <v>43971</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="45">
         <v>200</v>
       </c>
-      <c r="F98" s="45">
+      <c r="F98" s="42">
         <v>66.239999999999995</v>
       </c>
-      <c r="G98" s="46" t="s">
+      <c r="G98" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H98" s="10">
@@ -19101,35 +19101,35 @@
       <c r="L98" s="10">
         <v>24</v>
       </c>
-      <c r="M98" s="47">
+      <c r="M98" s="44">
         <v>45.156837555857173</v>
       </c>
       <c r="N98" s="8"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D99" s="43">
+      <c r="D99" s="40">
         <v>43800</v>
       </c>
-      <c r="E99" s="48">
+      <c r="E99" s="45">
         <v>300</v>
       </c>
-      <c r="F99" s="45">
+      <c r="F99" s="42">
         <v>165.08</v>
       </c>
-      <c r="G99" s="46" t="s">
+      <c r="G99" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H99" s="10">
@@ -19147,35 +19147,35 @@
       <c r="L99" s="10">
         <v>23</v>
       </c>
-      <c r="M99" s="47">
+      <c r="M99" s="44">
         <v>54.699152782388232</v>
       </c>
       <c r="N99" s="8"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D100" s="43">
+      <c r="D100" s="40">
         <v>43993</v>
       </c>
-      <c r="E100" s="48">
+      <c r="E100" s="45">
         <v>220</v>
       </c>
-      <c r="F100" s="45">
+      <c r="F100" s="42">
         <v>193.28</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H100" s="10">
@@ -19193,35 +19193,35 @@
       <c r="L100" s="10">
         <v>23</v>
       </c>
-      <c r="M100" s="47">
+      <c r="M100" s="44">
         <v>10.562683389913216</v>
       </c>
       <c r="N100" s="8"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D101" s="43">
+      <c r="D101" s="40">
         <v>43926</v>
       </c>
-      <c r="E101" s="48">
+      <c r="E101" s="45">
         <v>150</v>
       </c>
-      <c r="F101" s="45">
+      <c r="F101" s="42">
         <v>71.38</v>
       </c>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="10">
@@ -19239,14 +19239,14 @@
       <c r="L101" s="10">
         <v>27</v>
       </c>
-      <c r="M101" s="47">
+      <c r="M101" s="44">
         <v>50.49916672859294</v>
       </c>
       <c r="N101" s="8"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="34"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22972,8 +22972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2DAE1E-C96B-4DD0-BFBC-E69ED56A2733}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22984,30 +22984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>995</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>996</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1026</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>1028</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>1027</v>
-      </c>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>43384</v>
       </c>
       <c r="C2" s="17">
@@ -23027,7 +23025,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>43377</v>
       </c>
       <c r="C3" s="17">
@@ -23047,7 +23045,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>43344</v>
       </c>
       <c r="C4" s="17">
@@ -23067,7 +23065,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>43337</v>
       </c>
       <c r="C5" s="17">
@@ -23087,7 +23085,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>43327</v>
       </c>
       <c r="C6" s="17">
@@ -23107,7 +23105,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>43335</v>
       </c>
       <c r="C7" s="17">
@@ -23127,7 +23125,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>43346</v>
       </c>
       <c r="C8" s="17">
@@ -23147,7 +23145,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>43333</v>
       </c>
       <c r="C9" s="17">
@@ -23167,7 +23165,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>43333</v>
       </c>
       <c r="C10" s="17">
@@ -23187,7 +23185,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>43327</v>
       </c>
       <c r="C11" s="17">
@@ -23207,7 +23205,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>43574</v>
       </c>
       <c r="C12" s="17">
@@ -23227,7 +23225,7 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>43578</v>
       </c>
       <c r="C13" s="17">
@@ -23247,7 +23245,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>43576</v>
       </c>
       <c r="C14" s="17">
@@ -23267,7 +23265,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>43546</v>
       </c>
       <c r="C15" s="17">
@@ -23287,7 +23285,7 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>43558</v>
       </c>
       <c r="C16" s="17">
@@ -23307,7 +23305,7 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>43560</v>
       </c>
       <c r="C17" s="17">
@@ -23327,7 +23325,7 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="28">
         <v>43547</v>
       </c>
       <c r="C18" s="17">
@@ -23347,7 +23345,7 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>43580</v>
       </c>
       <c r="C19" s="17">
@@ -23367,7 +23365,7 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="28">
         <v>43578</v>
       </c>
       <c r="C20" s="17">
@@ -23387,7 +23385,7 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <v>43564</v>
       </c>
       <c r="C21" s="17">
@@ -23407,7 +23405,7 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="28">
         <v>44009</v>
       </c>
       <c r="C22" s="17">
@@ -23427,7 +23425,7 @@
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>43996</v>
       </c>
       <c r="C23" s="17">
@@ -23447,7 +23445,7 @@
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="28">
         <v>43468</v>
       </c>
       <c r="C24" s="17">
@@ -23467,7 +23465,7 @@
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="28">
         <v>43456</v>
       </c>
       <c r="C25" s="17">
@@ -23487,7 +23485,7 @@
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="28">
         <v>43450</v>
       </c>
       <c r="C26" s="17">
@@ -23507,7 +23505,7 @@
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="28">
         <v>43465</v>
       </c>
       <c r="C27" s="17">
@@ -23527,7 +23525,7 @@
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="28">
         <v>43442</v>
       </c>
       <c r="C28" s="17">
@@ -23547,7 +23545,7 @@
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="28">
         <v>43457</v>
       </c>
       <c r="C29" s="17">
@@ -23567,7 +23565,7 @@
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="28">
         <v>43475</v>
       </c>
       <c r="C30" s="17">
@@ -23587,7 +23585,7 @@
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="28">
         <v>43466</v>
       </c>
       <c r="C31" s="17">
@@ -23607,7 +23605,7 @@
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="28">
         <v>44055</v>
       </c>
       <c r="C32" s="17">
@@ -23627,7 +23625,7 @@
       <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="28">
         <v>44073</v>
       </c>
       <c r="C33" s="17">
@@ -23647,7 +23645,7 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="28">
         <v>44048</v>
       </c>
       <c r="C34" s="17">
@@ -23667,7 +23665,7 @@
       <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="28">
         <v>44048</v>
       </c>
       <c r="C35" s="17">
@@ -23687,7 +23685,7 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="28">
         <v>44072</v>
       </c>
       <c r="C36" s="17">
@@ -23707,7 +23705,7 @@
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="28">
         <v>44054</v>
       </c>
       <c r="C37" s="17">
@@ -23727,7 +23725,7 @@
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="28">
         <v>44043</v>
       </c>
       <c r="C38" s="17">
@@ -23747,7 +23745,7 @@
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="28">
         <v>44076</v>
       </c>
       <c r="C39" s="17">
@@ -23767,7 +23765,7 @@
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="28">
         <v>44061</v>
       </c>
       <c r="C40" s="17">
@@ -23787,7 +23785,7 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="28">
         <v>44056</v>
       </c>
       <c r="C41" s="17">
@@ -23807,7 +23805,7 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="28">
         <v>43986</v>
       </c>
       <c r="C42" s="17">
@@ -23827,7 +23825,7 @@
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="28">
         <v>43987</v>
       </c>
       <c r="C43" s="17">
@@ -23847,7 +23845,7 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="28">
         <v>43988</v>
       </c>
       <c r="C44" s="17">
@@ -23867,7 +23865,7 @@
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="28">
         <v>44072</v>
       </c>
       <c r="C45" s="17">
@@ -23887,7 +23885,7 @@
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="28">
         <v>44073</v>
       </c>
       <c r="C46" s="17">
@@ -23907,7 +23905,7 @@
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="28">
         <v>44074</v>
       </c>
       <c r="C47" s="17">
@@ -23927,7 +23925,7 @@
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="28">
         <v>44075</v>
       </c>
       <c r="C48" s="17">
@@ -23947,7 +23945,7 @@
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="28">
         <v>44076</v>
       </c>
       <c r="C49" s="17">
@@ -23967,7 +23965,7 @@
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="28">
         <v>44077</v>
       </c>
       <c r="C50" s="17">
@@ -23987,7 +23985,7 @@
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="28">
         <v>44078</v>
       </c>
       <c r="C51" s="17">
@@ -24007,7 +24005,7 @@
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="28">
         <v>44079</v>
       </c>
       <c r="C52" s="17">
@@ -24027,7 +24025,7 @@
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="28">
         <v>44080</v>
       </c>
       <c r="C53" s="17">
@@ -24047,7 +24045,7 @@
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="28">
         <v>44081</v>
       </c>
       <c r="C54" s="17">
@@ -24067,7 +24065,7 @@
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="28">
         <v>44082</v>
       </c>
       <c r="C55" s="17">
@@ -24087,7 +24085,7 @@
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="28">
         <v>44083</v>
       </c>
       <c r="C56" s="17">
@@ -24107,7 +24105,7 @@
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="28">
         <v>44084</v>
       </c>
       <c r="C57" s="17">
@@ -24127,7 +24125,7 @@
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="28">
         <v>44169</v>
       </c>
       <c r="C58" s="17">
@@ -24147,7 +24145,7 @@
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="28">
         <v>44170</v>
       </c>
       <c r="C59" s="17">
@@ -24167,7 +24165,7 @@
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="28">
         <v>44171</v>
       </c>
       <c r="C60" s="17">
@@ -24187,7 +24185,7 @@
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="28">
         <v>44172</v>
       </c>
       <c r="C61" s="17">
@@ -24207,7 +24205,7 @@
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="28">
         <v>43743</v>
       </c>
       <c r="C62" s="17">
@@ -24227,7 +24225,7 @@
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="28">
         <v>43743</v>
       </c>
       <c r="C63" s="17">
@@ -24247,7 +24245,7 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="28">
         <v>43743</v>
       </c>
       <c r="C64" s="17">
@@ -24267,7 +24265,7 @@
       <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="28">
         <v>43666</v>
       </c>
       <c r="C65" s="17">
@@ -24287,7 +24285,7 @@
       <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="28">
         <v>43666</v>
       </c>
       <c r="C66" s="17">
@@ -24307,7 +24305,7 @@
       <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="28">
         <v>43666</v>
       </c>
       <c r="C67" s="17">
@@ -24327,7 +24325,7 @@
       <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="28">
         <v>43646</v>
       </c>
       <c r="C68" s="17">
@@ -24347,7 +24345,7 @@
       <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="28">
         <v>43646</v>
       </c>
       <c r="C69" s="17">
@@ -24367,7 +24365,7 @@
       <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="28">
         <v>43646</v>
       </c>
       <c r="C70" s="17">
@@ -24387,7 +24385,7 @@
       <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="28">
         <v>43593</v>
       </c>
       <c r="C71" s="17">
@@ -24407,7 +24405,7 @@
       <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="28">
         <v>43593</v>
       </c>
       <c r="C72" s="17">
@@ -24427,7 +24425,7 @@
       <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="28">
         <v>43593</v>
       </c>
       <c r="C73" s="17">
@@ -24447,7 +24445,7 @@
       <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="28">
         <v>43593</v>
       </c>
       <c r="C74" s="17">
@@ -24467,7 +24465,7 @@
       <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="28">
         <v>43593</v>
       </c>
       <c r="C75" s="17">
@@ -24487,7 +24485,7 @@
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="28">
         <v>43593</v>
       </c>
       <c r="C76" s="17">
@@ -24507,7 +24505,7 @@
       <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="28">
         <v>43689</v>
       </c>
       <c r="C77" s="17">
@@ -24527,7 +24525,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="28">
         <v>43689</v>
       </c>
       <c r="C78" s="17">
@@ -24547,7 +24545,7 @@
       <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="28">
         <v>43689</v>
       </c>
       <c r="C79" s="17">
@@ -24567,7 +24565,7 @@
       <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="28">
         <v>43689</v>
       </c>
       <c r="C80" s="17">
@@ -24587,7 +24585,7 @@
       <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="28">
         <v>43689</v>
       </c>
       <c r="C81" s="17">
@@ -24607,7 +24605,7 @@
       <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="28">
         <v>43890</v>
       </c>
       <c r="C82" s="17">
@@ -24627,7 +24625,7 @@
       <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="31">
+      <c r="B83" s="28">
         <v>44099</v>
       </c>
       <c r="C83" s="17">
@@ -24647,7 +24645,7 @@
       <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84" s="28">
         <v>44052</v>
       </c>
       <c r="C84" s="17">
@@ -24667,7 +24665,7 @@
       <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="31">
+      <c r="B85" s="28">
         <v>43956</v>
       </c>
       <c r="C85" s="17">
@@ -24687,7 +24685,7 @@
       <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86" s="28">
         <v>43754</v>
       </c>
       <c r="C86" s="17">
@@ -24707,7 +24705,7 @@
       <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="28">
         <v>43938</v>
       </c>
       <c r="C87" s="17">
@@ -24727,7 +24725,7 @@
       <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="28">
         <v>43833</v>
       </c>
       <c r="C88" s="17">
@@ -24747,7 +24745,7 @@
       <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="28">
         <v>43807</v>
       </c>
       <c r="C89" s="17">
@@ -24767,7 +24765,7 @@
       <c r="A90" s="17">
         <v>89</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90" s="28">
         <v>44074</v>
       </c>
       <c r="C90" s="17">
@@ -24787,7 +24785,7 @@
       <c r="A91" s="17">
         <v>90</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91" s="28">
         <v>43635</v>
       </c>
       <c r="C91" s="17">
@@ -24807,7 +24805,7 @@
       <c r="A92" s="17">
         <v>91</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B92" s="28">
         <v>43586</v>
       </c>
       <c r="C92" s="17">
@@ -24827,7 +24825,7 @@
       <c r="A93" s="17">
         <v>92</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="28">
         <v>43582</v>
       </c>
       <c r="C93" s="17">
@@ -24847,7 +24845,7 @@
       <c r="A94" s="17">
         <v>93</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B94" s="28">
         <v>43982</v>
       </c>
       <c r="C94" s="17">
@@ -24867,7 +24865,7 @@
       <c r="A95" s="17">
         <v>94</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95" s="28">
         <v>43932</v>
       </c>
       <c r="C95" s="17">
@@ -24887,7 +24885,7 @@
       <c r="A96" s="17">
         <v>95</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="28">
         <v>43841</v>
       </c>
       <c r="C96" s="17">
@@ -24907,7 +24905,7 @@
       <c r="A97" s="17">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="28">
         <v>43989</v>
       </c>
       <c r="C97" s="17">
@@ -24927,7 +24925,7 @@
       <c r="A98" s="17">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="28">
         <v>43971</v>
       </c>
       <c r="C98" s="17">
@@ -24947,7 +24945,7 @@
       <c r="A99" s="17">
         <v>98</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="28">
         <v>43800</v>
       </c>
       <c r="C99" s="17">
@@ -24967,7 +24965,7 @@
       <c r="A100" s="17">
         <v>99</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="28">
         <v>43993</v>
       </c>
       <c r="C100" s="17">
@@ -24987,7 +24985,7 @@
       <c r="A101" s="17">
         <v>100</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="28">
         <v>43926</v>
       </c>
       <c r="C101" s="17">
@@ -25007,7 +25005,7 @@
       <c r="A102" s="17">
         <v>101</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="29">
         <v>43129</v>
       </c>
       <c r="C102" s="17">
@@ -25027,7 +25025,7 @@
       <c r="A103" s="17">
         <v>102</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="29">
         <v>43861</v>
       </c>
       <c r="C103" s="17">
@@ -25047,7 +25045,7 @@
       <c r="A104" s="17">
         <v>103</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="29">
         <v>43337</v>
       </c>
       <c r="C104" s="17">
@@ -25067,7 +25065,7 @@
       <c r="A105" s="17">
         <v>104</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="30">
         <v>43722</v>
       </c>
       <c r="C105" s="17">
@@ -25087,7 +25085,7 @@
       <c r="A106" s="17">
         <v>105</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="30">
         <v>43246</v>
       </c>
       <c r="C106" s="17">
@@ -25107,7 +25105,7 @@
       <c r="A107" s="17">
         <v>106</v>
       </c>
-      <c r="B107" s="32">
+      <c r="B107" s="29">
         <v>43812</v>
       </c>
       <c r="C107" s="17">
@@ -25127,7 +25125,7 @@
       <c r="A108" s="17">
         <v>107</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="31">
         <v>43884</v>
       </c>
       <c r="C108" s="17">
@@ -25147,7 +25145,7 @@
       <c r="A109" s="17">
         <v>108</v>
       </c>
-      <c r="B109" s="34">
+      <c r="B109" s="31">
         <v>43970</v>
       </c>
       <c r="C109" s="17">
@@ -25167,7 +25165,7 @@
       <c r="A110" s="17">
         <v>109</v>
       </c>
-      <c r="B110" s="34">
+      <c r="B110" s="31">
         <v>44067</v>
       </c>
       <c r="C110" s="17">
@@ -25187,7 +25185,7 @@
       <c r="A111" s="17">
         <v>110</v>
       </c>
-      <c r="B111" s="35">
+      <c r="B111" s="32">
         <v>43588</v>
       </c>
       <c r="C111" s="17">
@@ -25207,7 +25205,7 @@
       <c r="A112" s="17">
         <v>111</v>
       </c>
-      <c r="B112" s="35">
+      <c r="B112" s="32">
         <v>43658</v>
       </c>
       <c r="C112" s="17">
@@ -25227,7 +25225,7 @@
       <c r="A113" s="17">
         <v>112</v>
       </c>
-      <c r="B113" s="35">
+      <c r="B113" s="32">
         <v>43641</v>
       </c>
       <c r="C113" s="17">
@@ -25247,7 +25245,7 @@
       <c r="A114" s="17">
         <v>113</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="31">
         <v>43679</v>
       </c>
       <c r="C114" s="17">
@@ -25267,7 +25265,7 @@
       <c r="A115" s="17">
         <v>114</v>
       </c>
-      <c r="B115" s="34">
+      <c r="B115" s="31">
         <v>43741</v>
       </c>
       <c r="C115" s="17">
@@ -25287,7 +25285,7 @@
       <c r="A116" s="17">
         <v>115</v>
       </c>
-      <c r="B116" s="34">
+      <c r="B116" s="31">
         <v>43711</v>
       </c>
       <c r="C116" s="17">
@@ -25307,7 +25305,7 @@
       <c r="A117" s="17">
         <v>116</v>
       </c>
-      <c r="B117" s="34">
+      <c r="B117" s="31">
         <v>43818</v>
       </c>
       <c r="C117" s="17">
@@ -25327,7 +25325,7 @@
       <c r="A118" s="17">
         <v>117</v>
       </c>
-      <c r="B118" s="34">
+      <c r="B118" s="31">
         <v>43592</v>
       </c>
       <c r="C118" s="17">
@@ -25347,7 +25345,7 @@
       <c r="A119" s="17">
         <v>118</v>
       </c>
-      <c r="B119" s="34">
+      <c r="B119" s="31">
         <v>43577</v>
       </c>
       <c r="C119" s="17">
@@ -25367,7 +25365,7 @@
       <c r="A120" s="17">
         <v>119</v>
       </c>
-      <c r="B120" s="33">
+      <c r="B120" s="30">
         <v>43353</v>
       </c>
       <c r="C120" s="17">
@@ -25387,7 +25385,7 @@
       <c r="A121" s="17">
         <v>120</v>
       </c>
-      <c r="B121" s="33">
+      <c r="B121" s="30">
         <v>43326</v>
       </c>
       <c r="C121" s="17">
@@ -25407,7 +25405,7 @@
       <c r="A122" s="17">
         <v>121</v>
       </c>
-      <c r="B122" s="32">
+      <c r="B122" s="29">
         <v>43544</v>
       </c>
       <c r="C122" s="17">
@@ -25427,7 +25425,7 @@
       <c r="A123" s="17">
         <v>122</v>
       </c>
-      <c r="B123" s="33">
+      <c r="B123" s="30">
         <v>43978</v>
       </c>
       <c r="C123" s="17">
@@ -25447,7 +25445,7 @@
       <c r="A124" s="17">
         <v>123</v>
       </c>
-      <c r="B124" s="33">
+      <c r="B124" s="30">
         <v>43441</v>
       </c>
       <c r="C124" s="17">
@@ -25467,7 +25465,7 @@
       <c r="A125" s="17">
         <v>124</v>
       </c>
-      <c r="B125" s="33">
+      <c r="B125" s="30">
         <v>44036</v>
       </c>
       <c r="C125" s="17">
@@ -25487,7 +25485,7 @@
       <c r="A126" s="17">
         <v>125</v>
       </c>
-      <c r="B126" s="36">
+      <c r="B126" s="33">
         <v>43891</v>
       </c>
       <c r="C126" s="17">
@@ -25507,7 +25505,7 @@
       <c r="A127" s="17">
         <v>126</v>
       </c>
-      <c r="B127" s="36">
+      <c r="B127" s="33">
         <v>43977</v>
       </c>
       <c r="C127" s="17">
@@ -25527,7 +25525,7 @@
       <c r="A128" s="17">
         <v>127</v>
       </c>
-      <c r="B128" s="36">
+      <c r="B128" s="33">
         <v>44074</v>
       </c>
       <c r="C128" s="17">
@@ -25547,7 +25545,7 @@
       <c r="A129" s="17">
         <v>128</v>
       </c>
-      <c r="B129" s="35">
+      <c r="B129" s="32">
         <v>43595</v>
       </c>
       <c r="C129" s="17">
@@ -25567,7 +25565,7 @@
       <c r="A130" s="17">
         <v>129</v>
       </c>
-      <c r="B130" s="35">
+      <c r="B130" s="32">
         <v>43663</v>
       </c>
       <c r="C130" s="17">
@@ -25587,7 +25585,7 @@
       <c r="A131" s="17">
         <v>130</v>
       </c>
-      <c r="B131" s="35">
+      <c r="B131" s="32">
         <v>43649</v>
       </c>
       <c r="C131" s="17">
@@ -25607,7 +25605,7 @@
       <c r="A132" s="17">
         <v>131</v>
       </c>
-      <c r="B132" s="35">
+      <c r="B132" s="32">
         <v>43689</v>
       </c>
       <c r="C132" s="17">
@@ -25627,7 +25625,7 @@
       <c r="A133" s="17">
         <v>132</v>
       </c>
-      <c r="B133" s="34">
+      <c r="B133" s="31">
         <v>43862</v>
       </c>
       <c r="C133" s="17">
@@ -25647,7 +25645,7 @@
       <c r="A134" s="17">
         <v>133</v>
       </c>
-      <c r="B134" s="34">
+      <c r="B134" s="31">
         <v>43926</v>
       </c>
       <c r="C134" s="17">
@@ -25667,7 +25665,7 @@
       <c r="A135" s="17">
         <v>134</v>
       </c>
-      <c r="B135" s="34">
+      <c r="B135" s="31">
         <v>44058</v>
       </c>
       <c r="C135" s="17">
@@ -25687,7 +25685,7 @@
       <c r="A136" s="17">
         <v>135</v>
       </c>
-      <c r="B136" s="36">
+      <c r="B136" s="33">
         <v>43811</v>
       </c>
       <c r="C136" s="17">
@@ -25707,7 +25705,7 @@
       <c r="A137" s="17">
         <v>136</v>
       </c>
-      <c r="B137" s="36">
+      <c r="B137" s="33">
         <v>43781</v>
       </c>
       <c r="C137" s="17">
@@ -25727,7 +25725,7 @@
       <c r="A138" s="17">
         <v>137</v>
       </c>
-      <c r="B138" s="32">
+      <c r="B138" s="29">
         <v>43454</v>
       </c>
       <c r="C138" s="17">
@@ -25747,7 +25745,7 @@
       <c r="A139" s="17">
         <v>138</v>
       </c>
-      <c r="B139" s="32">
+      <c r="B139" s="29">
         <v>44187</v>
       </c>
       <c r="C139" s="17">
@@ -25767,7 +25765,7 @@
       <c r="A140" s="17">
         <v>139</v>
       </c>
-      <c r="B140" s="32">
+      <c r="B140" s="29">
         <v>43626</v>
       </c>
       <c r="C140" s="17">
@@ -25787,7 +25785,7 @@
       <c r="A141" s="17">
         <v>140</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="30">
         <v>44050</v>
       </c>
       <c r="C141" s="17">
@@ -25807,7 +25805,7 @@
       <c r="A142" s="17">
         <v>141</v>
       </c>
-      <c r="B142" s="33">
+      <c r="B142" s="30">
         <v>43551</v>
       </c>
       <c r="C142" s="17">
@@ -25827,7 +25825,7 @@
       <c r="A143" s="17">
         <v>142</v>
       </c>
-      <c r="B143" s="32">
+      <c r="B143" s="29">
         <v>44118</v>
       </c>
       <c r="C143" s="17">
@@ -25847,7 +25845,7 @@
       <c r="A144" s="17">
         <v>143</v>
       </c>
-      <c r="B144" s="36">
+      <c r="B144" s="33">
         <v>43981</v>
       </c>
       <c r="C144" s="17">
@@ -25867,7 +25865,7 @@
       <c r="A145" s="17">
         <v>144</v>
       </c>
-      <c r="B145" s="36">
+      <c r="B145" s="33">
         <v>44067</v>
       </c>
       <c r="C145" s="17">
@@ -25887,7 +25885,7 @@
       <c r="A146" s="17">
         <v>145</v>
       </c>
-      <c r="B146" s="36">
+      <c r="B146" s="33">
         <v>44164</v>
       </c>
       <c r="C146" s="17">
@@ -25907,7 +25905,7 @@
       <c r="A147" s="17">
         <v>146</v>
       </c>
-      <c r="B147" s="35">
+      <c r="B147" s="32">
         <v>43733</v>
       </c>
       <c r="C147" s="17">
@@ -25927,7 +25925,7 @@
       <c r="A148" s="17">
         <v>147</v>
       </c>
-      <c r="B148" s="35">
+      <c r="B148" s="32">
         <v>43833</v>
       </c>
       <c r="C148" s="17">
@@ -25947,7 +25945,7 @@
       <c r="A149" s="17">
         <v>148</v>
       </c>
-      <c r="B149" s="35">
+      <c r="B149" s="32">
         <v>43876</v>
       </c>
       <c r="C149" s="17">
@@ -25967,7 +25965,7 @@
       <c r="A150" s="17">
         <v>149</v>
       </c>
-      <c r="B150" s="35">
+      <c r="B150" s="32">
         <v>43954</v>
       </c>
       <c r="C150" s="17">
@@ -25987,7 +25985,7 @@
       <c r="A151" s="17">
         <v>150</v>
       </c>
-      <c r="B151" s="34">
+      <c r="B151" s="31">
         <v>43952</v>
       </c>
       <c r="C151" s="17">
@@ -26007,7 +26005,7 @@
       <c r="A152" s="17">
         <v>151</v>
       </c>
-      <c r="B152" s="34">
+      <c r="B152" s="31">
         <v>44017</v>
       </c>
       <c r="C152" s="17">
@@ -26027,7 +26025,7 @@
       <c r="A153" s="17">
         <v>152</v>
       </c>
-      <c r="B153" s="36">
+      <c r="B153" s="33">
         <v>44150</v>
       </c>
       <c r="C153" s="17">
@@ -26047,7 +26045,7 @@
       <c r="A154" s="17">
         <v>153</v>
       </c>
-      <c r="B154" s="34">
+      <c r="B154" s="31">
         <v>43902</v>
       </c>
       <c r="C154" s="17">
@@ -26067,7 +26065,7 @@
       <c r="A155" s="17">
         <v>154</v>
       </c>
-      <c r="B155" s="34">
+      <c r="B155" s="31">
         <v>43873</v>
       </c>
       <c r="C155" s="17">
@@ -26087,7 +26085,7 @@
       <c r="A156" s="17">
         <v>155</v>
       </c>
-      <c r="B156" s="32">
+      <c r="B156" s="29">
         <v>43463</v>
       </c>
       <c r="C156" s="17">
@@ -26107,7 +26105,7 @@
       <c r="A157" s="17">
         <v>156</v>
       </c>
-      <c r="B157" s="32">
+      <c r="B157" s="29">
         <v>44196</v>
       </c>
       <c r="C157" s="17">
@@ -26127,7 +26125,7 @@
       <c r="A158" s="17">
         <v>157</v>
       </c>
-      <c r="B158" s="32">
+      <c r="B158" s="29">
         <v>43595</v>
       </c>
       <c r="C158" s="17">
@@ -26147,7 +26145,7 @@
       <c r="A159" s="17">
         <v>158</v>
       </c>
-      <c r="B159" s="33">
+      <c r="B159" s="30">
         <v>44019</v>
       </c>
       <c r="C159" s="17">
@@ -26167,7 +26165,7 @@
       <c r="A160" s="17">
         <v>159</v>
       </c>
-      <c r="B160" s="33">
+      <c r="B160" s="30">
         <v>43523</v>
       </c>
       <c r="C160" s="17">
@@ -26187,7 +26185,7 @@
       <c r="A161" s="17">
         <v>160</v>
       </c>
-      <c r="B161" s="33">
+      <c r="B161" s="30">
         <v>44088</v>
       </c>
       <c r="C161" s="17">
@@ -26207,7 +26205,7 @@
       <c r="A162" s="17">
         <v>161</v>
       </c>
-      <c r="B162" s="36">
+      <c r="B162" s="33">
         <v>43991</v>
       </c>
       <c r="C162" s="17">
@@ -26227,7 +26225,7 @@
       <c r="A163" s="17">
         <v>162</v>
       </c>
-      <c r="B163" s="36">
+      <c r="B163" s="33">
         <v>44077</v>
       </c>
       <c r="C163" s="17">
@@ -26247,7 +26245,7 @@
       <c r="A164" s="17">
         <v>163</v>
       </c>
-      <c r="B164" s="36">
+      <c r="B164" s="33">
         <v>44174</v>
       </c>
       <c r="C164" s="17">
@@ -26267,7 +26265,7 @@
       <c r="A165" s="17">
         <v>164</v>
       </c>
-      <c r="B165" s="35">
+      <c r="B165" s="32">
         <v>43741</v>
       </c>
       <c r="C165" s="17">
@@ -26287,7 +26285,7 @@
       <c r="A166" s="17">
         <v>165</v>
       </c>
-      <c r="B166" s="35">
+      <c r="B166" s="32">
         <v>43876</v>
       </c>
       <c r="C166" s="17">
@@ -26307,7 +26305,7 @@
       <c r="A167" s="17">
         <v>166</v>
       </c>
-      <c r="B167" s="35">
+      <c r="B167" s="32">
         <v>43897</v>
       </c>
       <c r="C167" s="17">
@@ -26327,7 +26325,7 @@
       <c r="A168" s="17">
         <v>167</v>
       </c>
-      <c r="B168" s="35">
+      <c r="B168" s="32">
         <v>43994</v>
       </c>
       <c r="C168" s="17">
@@ -26347,7 +26345,7 @@
       <c r="A169" s="17">
         <v>168</v>
       </c>
-      <c r="B169" s="34">
+      <c r="B169" s="31">
         <v>43961</v>
       </c>
       <c r="C169" s="17">
@@ -26367,7 +26365,7 @@
       <c r="A170" s="17">
         <v>169</v>
       </c>
-      <c r="B170" s="34">
+      <c r="B170" s="31">
         <v>44026</v>
       </c>
       <c r="C170" s="17">
@@ -26387,7 +26385,7 @@
       <c r="A171" s="17">
         <v>170</v>
       </c>
-      <c r="B171" s="36">
+      <c r="B171" s="33">
         <v>44159</v>
       </c>
       <c r="C171" s="17">
@@ -26407,7 +26405,7 @@
       <c r="A172" s="17">
         <v>171</v>
       </c>
-      <c r="B172" s="34">
+      <c r="B172" s="31">
         <v>43911</v>
       </c>
       <c r="C172" s="17">
@@ -26427,7 +26425,7 @@
       <c r="A173" s="17">
         <v>172</v>
       </c>
-      <c r="B173" s="34">
+      <c r="B173" s="31">
         <v>43882</v>
       </c>
       <c r="C173" s="17">
@@ -26451,9 +26449,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4883787-AB91-4D5E-8FF4-7C317E953AF0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -26511,6 +26509,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -26606,8 +26609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1DD49-F37E-4DBB-8EFD-448BC8283AED}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26642,7 +26645,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -26697,7 +26700,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
